--- a/Estandares.xlsx
+++ b/Estandares.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA96251-8822-4F6B-A089-BE337013A1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D2B2CA-1862-4873-8986-0C4669AC7328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Asistenciales</t>
   </si>
@@ -43,205 +43,12 @@
     <t>AsSP2</t>
   </si>
   <si>
-    <t>AsSP3</t>
-  </si>
-  <si>
-    <t>AsSP4</t>
-  </si>
-  <si>
-    <t>AsAC1</t>
-  </si>
-  <si>
-    <t>AsAC2</t>
-  </si>
-  <si>
-    <t>AsAC5</t>
-  </si>
-  <si>
-    <t>AsAC6</t>
-  </si>
-  <si>
-    <t>AsAC7</t>
-  </si>
-  <si>
     <t>La institución que realiza proyectos de investigación con sus usuarios garantiza:</t>
   </si>
   <si>
-    <t>La organización cuenta con un código de ética y un código de buen gobierno articulados con el
-direccionamiento estratégico. Se evalúa su cumplimiento y se actualiza cuando es necesario.</t>
-  </si>
-  <si>
-    <t>La organización implementa la totalidad de las recomendaciones que le sean aplicables de la Guía técnica de buenas prácticas en seguridad del paciente en la atención en salud: procesos institucionales seguros, procesos asistenciales seguros, prácticas que mejoren la actuación de los profesionales, e involucrar los pacientes y sus allegados en su seguridad.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Los derechos de los pacientes les son informados y, si las condiciones de los pacientes no permiten la comprensión de su contenido (infantes, limitaciones mentales, etc.), la organización debe garantizar que estos sean informados y entendidos por un acompañante con capacidad de comprensión (incluye versión en idiomas extranjeros o dialectos que utilice el usuario cuando aplique).
- La organización garantiza que el proceso de atención a los pacientes se provee atendiendo al respeto que merece la condición de paciente e independiente de sexo, edad, valores, creencias, religión, grupo étnico, preferencias sexuales o condición médica.
- La organización garantiza estrategias que permitan la participación activa del paciente y familia en el proceso de atención.
- El comité de ética hospitalaria tiene entre sus funciones la promoción, la divulgación y la apropiación de los deberes y los derechos y estudia casos en que los mismos son vulnerados.
- La participación de los usuarios en investigaciones debe contar con su aceptación escrita y explícita. Previamente a esta aceptación, se le informará verbalmente y por escrito al usuario de dicha solicitud, explicándole los alcances y riesgos de su participación.
- Toda investigación amerita la reunión de un comité de ética de la investigación; debe garantizarse que este se reunió y dio su aprobación formalmente mediante acta.
- La negativa por parte del usuario no puede ser barrera para una atención médica acorde con su patología.
- La organización respeta la voluntad y autonomía del usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El respeto al derecho del usuario de participar o rehusarse a hacerlo.
- La información relacionada con el proyecto, su objetivo, beneficios y riesgos.
- Un comité que analice y avale los proyectos de investigación en los que participa la institución.
- El análisis de los eventos adversos derivados de los estudios de investigación.
- Las competencias técnicas del personal que hace parte del equipo de investigación.
- Los principios éticos y parámetros internacionales y nacionales para la participación de usuarios o personal en investigaciones clínicas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El código de ética contempla el respeto por los derechos y los deberes de los usuarios.
- El código de buen gobierno incluye mecanismos para presentar posibles conflictos de intereses.
- Los comités de ética evalúan situaciones especiales de la atención ética de los pacientes (trasplantes, muerte cerebral, estado terminal, entre otros).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Si la organización presta servicios mediante la venta de servicios parciales como hotelería, salas de cirugía u otros, cuenta con mecanismos para asegurar que la atención extrainstitucional ambulatoria o intrainstitucional prestada por terceros se presta cumpliendo con los estándares de acreditación en relación con el servicio o servicios prestados.
- Si la organización tiene responsabilidades en la atención de grupos poblacionales o contrata servicios con terceros, cuenta con mecanismos para asegurar que el ciclo de atención del usuario del cual es responsable se realiza cumpliendo con los estándares de acreditación. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Una estructura funcional para la seguridad del paciente.
- La implementación de estrategias para el fortalecimiento de la cultura justa de la seguridad que incentiva el reporte voluntario de eventos, la identificación de riesgos asistenciales y la definición de barreras de seguridad orientadas a su mitigación.
- Monitorización de eventos adversos.
- Evidencias de tendencias hacia la mejora y el desempeño superior.
- Inclusión de estrategias de información sobre eventos adversos a los pacientes y sus familiares</t>
-  </si>
-  <si>
-    <t>La organización asegura que para todos los usuarios que atiende, independientemente de la
-modalidad de venta o contratación de los servicios, se cumplen de igual manera los estándares de acreditación que apliquen a los servicios prestados.</t>
-  </si>
-  <si>
     <t>La organización tiene formulada implementada y evaluada la política de Seguridad de pacientes y garantiza su despliegue en toda la organización mediante:</t>
   </si>
   <si>
-    <t>La estandarización de un sistema de búsqueda de factores de riesgos, fallas y eventos adversos.
- La investigación, el análisis, la gestión y la toma de decisiones que evite los eventos adversos prevenibles y, en caso de presentarse, mitigar sus consecuencias.
- La organización identifica si la actual atención es consecuencia de un evento adverso, independientemente de donde se haya prestado la atención precedente.
- A partir de los resultados de la evaluación de la cultura de seguridad se definen acciones para el mejoramiento de los factores críticos que inciden en la transformación del clima de seguridad.</t>
-  </si>
-  <si>
-    <t>La política de seguridad de pacientes se despliega en la generación y la medición de la cultura de
-seguridad (que incluye la medición del clima de seguridad), la implementación de un programa de
-Seguridad (que defina las herramientas) y la conformación del comité de seguridad de pacientes. Incluye:</t>
-  </si>
-  <si>
-    <t>Procesos institucionales seguros:
- Contar con un Programa de Seguridad del Paciente que provea una adecuada caja de herramientas para la identificación y gestión de eventos adversos.
- Política institucional de Seguridad del Paciente
- Promoción de la cultura de seguridad
- Sistema de reporte de eventos adversos y aprendizaje colectivo: Reporte, Análisis y Gestión.
- Brindar capacitación al cliente interno en los aspectos relevantes de la seguridad en los procesos a su cargo
- Coordinar procedimientos y acciones recíprocas de los programas de seguridad del paciente entre asegurador y prestador
- Estandarización de procedimientos de atención
- Evaluar la frecuencia con la cual ocurren los eventos adversos.
- La institución debe monitorizar aspectos claves relacionados con la seguridad del paciente, utilización y/o desarrollo de software para disminuir riesgo en la prestación del servicio.
- Seguridad en el ambiente físico y la tecnología en salud
-Procesos Asistenciales seguros:
- Detectar, prevenir y reducir el riesgo de infecciones asociadas con la atención en salud
- Mejorar la seguridad en la utilización de medicamentos,
- Procesos para la prevención y reducción de la frecuencia de caídas
- Mejorar la seguridad en los procedimientos quirúrgicos
- Prevenir ulceras por presión
- Prevenir las complicaciones anestésicas
- Asegurar la correcta identificación del paciente en los procesos asistenciales
- Garantizar la correcta identificación del paciente y las muestras en el laboratorio
- Implementar equipos de respuesta rápida
- Reducir el riesgo de la atención en pacientes cardiovasculares
- Prevenir complicaciones asociadas a la disponibilidad y manejo de sangre y componentes y a la transfusión sanguínea
- Reducir el riesgo de la atención del paciente crítico
-  Mejorar la Seguridad en la obtención de ayudas diagnósticas
- Reducir el riesgo de la atención de pacientes con enfermedad mental
-  Prevención de la malnutrición o desnutrición
-  Garantizar la atención segura del binomio madre – hijo
-Prácticas que mejoren la actuación de los profesionales:
-  Gestionar y desarrollar la adecuada comunicación entre las personas que atienden y cuidan a los pacientes
-  Prevenir el cansancio del personal de salud
-  Garantizar la funcionalidad de los procedimientos de Consentimiento Informado
-  Establecer pautas claras para el proceso docente asistencial definiendo responsabilidades éticas y legales entre las partes.
-Involucrar los pacientes y sus allegados en su seguridad:
-  Ilustrar al paciente en el autocuidado de su seguridad
-  Facilitar las acciones colaborativas de pacientes y sus familias para promover la seguridad de la atención</t>
-  </si>
-  <si>
-    <t>La organización tiene definido, implementado y en operación el plan de prevención y control de infecciones.</t>
-  </si>
-  <si>
-    <t>El plan de prevención y control de infecciones está incorporado en el plan de direccionamiento estratégico de la organización.
-El plan de prevención y control de infecciones cuenta con metas precisas que son medidas en el tiempo.
-Implementación de protocolos para la higiene de manos basados en la evidencia.
-Capacitación inicial y refuerzo periódico en los protocolos de higiene de manos a todo el personal de la institución y personal en formación.
-Evaluaciones periódicas del cumplimiento de los protocolos de higiene de manos, mediante observación directa.
-Información de los resultados alcanzados en la evaluación del cumplimiento del protocolo a todo el personal implicado.
-Utilización de los resultados para implementar mejoras en el proceso, cuando sea necesario.
-Están identificadas las responsabilidades para la prevención de infecciones.
-El personal de la organización recibe inducción, reinducción y entrenamiento en la prevención y el control de infecciones.</t>
-  </si>
-  <si>
-    <t>La organización garantiza el acceso de los usuarios, según las diferentes particularidades y
-características de los usuarios. Se evalúan las barreras del acceso y se desarrollan acciones de mejoramiento.</t>
-  </si>
-  <si>
-    <t>Desde el acceso, se definen mecanismos de identificación redundante.
-Desde el acceso, se hace identificación de riesgos de la atención de acuerdo con el tipo de usuario.
-Se hace un análisis de barreras de acceso a la organización (autorizaciones, administrativas, geográficas, entre otras) y también dentro de la organización hacia los diferentes servicios.
-Se hacen mediciones de demanda insatisfecha y se toman acciones que demuestran su reducción</t>
-  </si>
-  <si>
-    <t>AsAC3</t>
-  </si>
-  <si>
-    <t>AsAC4</t>
-  </si>
-  <si>
-    <t>En su defecto, le ofrecerá al solicitante otras opciones de profesionales disponibles, acordes con las necesidades del usuario.</t>
-  </si>
-  <si>
-    <t>En caso de organizaciones integradas en red, se identifica un rango de proveedores o puntos de atención en salud y de rutas de acceso. Se evalúan las barreras del acceso y se desarrollan acciones de mejoramiento.</t>
-  </si>
-  <si>
-    <t>Está estandarizado el ciclo de atención del usuario desde que llega a la organización hasta su egreso, en sus diferentes momentos de contacto administrativo y asistencial; es conocido por todo el personal asistencial y administrativo de la organización; se verifica el conocimiento y se implementan acciones frente a las desviaciones.</t>
-  </si>
-  <si>
-    <t>Cuando un usuario solicita citas, la organización garantiza el derecho del usuario a solicitar la atención con el profesional de la salud de su preferencia que se encuentre entre las opciones ofertadas por la institución prestadora. Cuenta con un sistema que permite verificar la disponibilidad de dicho profesional y la oportunidad de su atención.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La organización programa la atención de acuerdo con los tiempos de los profesionales y, para respetar el tiempo de los usuarios, realiza la programación teniendo en cuenta el tiempo que se requiera para la realización de cada uno de los procesos de atención; esto lo hace teniendo en cuenta la capacidad instalada, el análisis de demanda por servicios y los procesos de atención; esta programación se evalúa periódicamente para verificar su cumplimiento en el marco de criterios de calidad. Se toman correctivos frente a las desviaciones encontradas.
-</t>
-  </si>
-  <si>
-    <t>En caso de no atención a los usuarios, por cualquier motivo, la organización cuenta con un sistema de investigación, análisis e información sobre las causas de desatención.
-La organización tiene definidos los siguientes indicadores y estándares para el acceso:
-Oportunidad para los determinados servicios ambulatorios con los que cuenta.
-Tiempos de espera en los diferentes momentos del acceso a los servicios administrativos y asistenciales, incluida la toma de muestras de laboratorio y la realización de exámenes de apoyo (laboratorio e imagenología).
-Tiempos para la realización de interconsultas.
-Listas de espera para las patologías que lo ameritan.
-Demanda insatisfecha
-Se toman correctivos frente a las desviaciones encontradas.</t>
-  </si>
-  <si>
-    <t>La organización define los indicadores y estándares de oportunidad para los servicios ambulatorios y de respuesta hospitalaria con los que cuenta y se encuentran dentro de o supera los umbrales definidos en el Sistema de Información para la Calidad.</t>
-  </si>
-  <si>
-    <t>AsAC8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La organización garantiza la información al usuario sobre los servicios que presta. En los casos en los cuales el usuario no tiene derecho, la información debe ser explícita en relación con la forma para acceder a la prestación de tales servicios no cubiertos.
-</t>
-  </si>
-  <si>
-    <t>Se tiene estandarizada la asignación de citas y autorización de las mismas a los usuarios que requieran de sus servicios.</t>
-  </si>
-  <si>
-    <t>El sistema de asignación de citas podrá estar basado en diversas modalidades conocidas en el sistema de salud (call centers, servicios telefónicos o presenciales propios en la respectiva sede, internet, etc.). La organización realiza mediciones para la mejora de la efectividad de estos medios.
-El sistema cuenta con las bases de datos actualizadas de los usuarios con derecho a recibir servicios en la (las) entidad(es) prestadora(s), cuando aplique.
-Quien asigna la cita conoce la información de: disponibilidad de servicios, horarios de atención, profesionales, especialidades y localización geográfica de los prestadores en los cuales los solicitantes tienen derecho de atención.
-Al momento de asignar la cita al usuario, se le informa fecha, hora, dirección y profesional asignado, así como la forma para cancelarla. Se deja constancia de esta información en el sitio donde se asigna la cita.
-La organización tiene implementada una estrategia para disminuir el riesgo de inasistencia.
-La organización garantiza que se entrega con anterioridad a la atención al usuario la información requerida para su atención.
-La organización tiene estandarizado el flujo de información que indique el procedimiento a seguir a los usuarios con solicitud de exámenes de laboratorio clínico e imágenes diagnósticas o de aquellos servicios que no requieran cita previa para su realización.</t>
-  </si>
-  <si>
     <t>descripcion</t>
   </si>
   <si>
@@ -254,7 +61,56 @@
     <t>criterios</t>
   </si>
   <si>
-    <t>La organización cuenta con una declaración de los derechos y deberes de los pacientes incorporada en el plan de direccionamiento estratégico de la organización, que aplica al proceso de atención al cliente. El personal ha sido entrenado en el contenido de la declaración de los pacientes y cuenta con herramientas para evaluar que los pacientes y el personal comprenden y siguen sus directrices. Los pacientes que van a ser atendidos conocen y comprenden el contenido de la declaración de sus derechos y deberes.</t>
+    <t>La organización cuenta con un código de ética y un código de buen gobierno articulados con el direccionamiento estratégico. Se evalúa su cumplimiento y se actualiza cuando es necesario.</t>
+  </si>
+  <si>
+    <t>La organización cuenta con una declaración de los derechos y deberes de los pacientes incorporada en el plan de direccionamiento estratégico de la organización que aplica al proceso de atención al cliente. El personal ha sido entrenado en el contenido de la declaración de los pacientes y cuenta con herramientas para evaluar que los pacientes y el personal comprenden y siguen sus directrices. Los pacientes que van a ser atendidos conocen y comprenden el contenido de la declaración de sus derechos y deberes.</t>
+  </si>
+  <si>
+    <t>La organización asegura que para todos los usuarios que atiende independientemente de la modalidad de venta o contratación de los servicios se cumplen de igual manera los estándares de acreditación que apliquen a los servicios prestados.</t>
+  </si>
+  <si>
+    <t>La política de seguridad de pacientes se despliega en la generación y la medición de la cultura de seguridad (que incluye la medición del clima de seguridad) la implementación de un programa de Seguridad (que defina las herramientas) y la conformación del comité de seguridad de pacientes. Incluye:</t>
+  </si>
+  <si>
+    <t>1. Los derechos de los pacientes les son informados y si las condiciones de los pacientes no permiten la comprensión de su contenido (infantes limitaciones mentales etc.) la organización debe garantizar que estos sean informados y entendidos por un acompañante con capacidad de comprensión (incluye versión en idiomas extranjeros o dialectos que utilice el usuario cuando aplique).
+2. La organización garantiza que el proceso de atención a los pacientes se provee atendiendo al respeto que merece la condición de paciente e independiente de sexo edad valores creencias religión grupo étnico preferencias sexuales o condición médica.
+3. La organización garantiza estrategias que permitan la participación activa del paciente y familia en el proceso de atención.
+4. El comité de ética hospitalaria tiene entre sus funciones la promoción la divulgación y la apropiación de los deberes y los derechos y estudia casos en que los mismos son vulnerados.
+ 5. La participación de los usuarios en investigaciones debe contar con su aceptación escrita y explícita. Previamente a esta aceptación se le informará verbalmente y por escrito al usuario de dicha solicitud explicándole los alcances y riesgos de su participación.
+6. Toda investigación amerita la reunión de un comité de ética de la investigación; debe garantizarse que este se reunió y dio su aprobación formalmente mediante acta.
+7. La negativa por parte del usuario no puede ser barrera para una atención médica acorde con su patología.
+8. La organización respeta la voluntad y autonomía del usuario.</t>
+  </si>
+  <si>
+    <t>1. El respeto al derecho del usuario de participar o rehusarse a hacerlo.
+ 2. La información relacionada con el proyecto su objetivo beneficios y riesgos.
+3.  Un comité que analice y avale los proyectos de investigación en los que participa la institución.
+4. El análisis de los eventos adversos derivados de los estudios de investigación.
+5. Las competencias técnicas del personal que hace parte del equipo de investigación.
+ 6. Los principios éticos y parámetros internacionales y nacionales para la participación de usuarios o personal en investigaciones clínicas.</t>
+  </si>
+  <si>
+    <t>1. El código de ética contempla el respeto por los derechos y los deberes de los usuarios.
+2. El código de buen gobierno incluye mecanismos para presentar posibles conflictos de intereses.
+ 3. Los comités de ética evalúan situaciones especiales de la atención ética de los pacientes (trasplantes muerte cerebral estado terminal entre otros).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Si la organización presta servicios mediante la venta de servicios parciales como hotelería salas de cirugía u otros cuenta con mecanismos para asegurar que la atención extrainstitucional ambulatoria o intrainstitucional prestada por terceros se presta cumpliendo con los estándares de acreditación en relación con el servicio o servicios prestados.
+2. Si la organización tiene responsabilidades en la atención de grupos poblacionales o contrata servicios con terceros cuenta con mecanismos para asegurar que el ciclo de atención del usuario del cual es responsable se realiza cumpliendo con los estándares de acreditación. </t>
+  </si>
+  <si>
+    <t>1. Una estructura funcional para la seguridad del paciente.
+ 2. La implementación de estrategias para el fortalecimiento de la cultura justa de la seguridad que incentiva el reporte voluntario de eventos la identificación de riesgos asistenciales y la definición de barreras de seguridad orientadas a su mitigación.
+3. Monitorización de eventos adversos.
+4. Evidencias de tendencias hacia la mejora y el desempeño superior.
+5. Inclusión de estrategias de información sobre eventos adversos a los pacientes y sus familiares</t>
+  </si>
+  <si>
+    <t>1. La estandarización de un sistema de búsqueda de factores de riesgos fallas y eventos adversos.
+2. La investigación el análisis la gestión y la toma de decisiones que evite los eventos adversos prevenibles y en caso de presentarse mitigar sus consecuencias.
+3. La organización identifica si la actual atención es consecuencia de un evento adverso independientemente de donde se haya prestado la atención precedente.
+4. A partir de los resultados de la evaluación de la cultura de seguridad se definen acciones para el mejoramiento de los factores críticos que inciden en la transformación del clima de seguridad.</t>
   </si>
 </sst>
 </file>
@@ -330,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,9 +207,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -700,85 +553,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="A8:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="37.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.6328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.7265625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="121.26953125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="127.08984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="196.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>14</v>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>22</v>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>20</v>
@@ -791,157 +644,25 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>23</v>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>25</v>
+      <c r="C7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="145" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
